--- a/imageCreationExcel/back/darkyobi/darkyobi_18.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_18.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.099289745796813</v>
+        <v>0.8645224806833656</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9143629711805311</v>
+        <v>0.3630797472395066</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9175015951401706</v>
+        <v>16.89582471761323</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_T_gamma1.1_contrast0.91_sharpness0.92.jpg</t>
+          <t>1_0_contrast0.86_sharpness0.36_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8394778184331504</v>
+        <v>11.61603363411118</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7727634243752952</v>
+        <v>0.9831179780987505</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16.07322668744144</v>
+        <v>0.7740606721787145</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_gamma0.84_sharpness0.77_equalization16.0.jpg</t>
+          <t>2_P_brightness12.0_contrast0.98_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.66459351891165</v>
+        <v>1.130919206497761</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.180652095659177</v>
+        <v>0.5334857971113135</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.087457898305207</v>
+        <v>0.8638771358302785</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_brightness26.0_contrast1.2_gamma1.1.jpg</t>
+          <t>3_2_contrast1.1_gamma0.53_sharpness0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,30 +621,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6899759661793317</v>
+        <v>0.6107796507057091</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.335826275937464</v>
+        <v>0.4521493428253792</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.199672297316473</v>
+        <v>16.08858715991886</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_1_gamma0.69_brightness1.3_contrast1.2.jpg</t>
+          <t>4_8_gamma0.61_sharpness0.45_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.017528015817571</v>
+        <v>0.8810827218657687</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17.12498072159843</v>
+        <v>0.8099942196376548</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7944268674735383</v>
+        <v>0.9893902713948481</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_contrast1.0_brightness17.0_sharpness0.79.jpg</t>
+          <t>5_8_sharpness0.88_gamma0.81_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.04469092122499319</v>
+        <v>0.9463712471202921</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8582896117604291</v>
+        <v>1.008234383130435</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.390416442884995</v>
+        <v>27.88924904679943</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_1_sharpness0.045_contrast0.86_equalization8.4.jpg</t>
+          <t>6_9_sharpness0.95_contrast1.0_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8924760342963489</v>
+        <v>3.378315361882573</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.4100426874283769</v>
+        <v>0.6974853278543734</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.5392477187197102</v>
+        <v>0.8066467085463606</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_9_sharpness0.89_brightness0.41_gamma0.54.jpg</t>
+          <t>7_T_brightness3.4_gamma0.7_contrast0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9882759591788324</v>
+        <v>0.9064038180802982</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.161435064698799</v>
+        <v>0.06891041153896815</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22.63171505410812</v>
+        <v>30.46306612227983</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_3_sharpness0.99_contrast1.2_equalization23.0.jpg</t>
+          <t>8_7_gamma0.91_sharpness0.069_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01732406095723105</v>
+        <v>0.5195873801586917</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.656152463396874</v>
+        <v>0.9681014599507812</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.5993363611289635</v>
+        <v>10.38538571751568</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_C_sharpness0.017_brightness3.7_gamma0.6.jpg</t>
+          <t>9_3_gamma0.52_sharpness0.97_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.465017117783291</v>
+        <v>0.7907242472393821</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8212145243438083</v>
+        <v>4.774557163540608</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18.37087481508168</v>
+        <v>1.158545552797831</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_sharpness0.47_gamma0.82_brightness18.0.jpg</t>
+          <t>10_P_gamma0.79_brightness4.8_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8574104599290289</v>
+        <v>1.017470405248972</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8461026540167362</v>
+        <v>1.024097662570969</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.063248703520983</v>
+        <v>0.2211506193435711</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_2_gamma0.86_sharpness0.85_contrast1.1.jpg</t>
+          <t>11_T_gamma1.0_contrast1.0_sharpness0.22.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8189527350286023</v>
+        <v>0.7412640389392743</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.4615204333895478</v>
+        <v>11.62278332577704</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>15.99289736384844</v>
+        <v>1.106262494037794</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_8_gamma0.82_sharpness0.46_equalization16.0.jpg</t>
+          <t>12_E_sharpness0.74_brightness12.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2439595280650309</v>
+        <v>20.06291826828761</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>29.24045991694247</v>
+        <v>1.167055599383807</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.066295670361389</v>
+        <v>0.5842854997765748</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_sharpness0.24_brightness29.0_contrast1.1.jpg</t>
+          <t>13_1_brightness20.0_contrast1.2_gamma0.58.jpg</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.093670107600033</v>
+        <v>0.6225989272607936</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>21.59289427078688</v>
+        <v>0.4511045035503569</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.061075145432235</v>
+        <v>0.8354014925815786</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_gamma1.1_brightness22.0_contrast1.1.jpg</t>
+          <t>14_2_gamma0.62_brightness0.45_sharpness0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8825152481121593</v>
+        <v>15.03808921267495</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.2302046434814164</v>
+        <v>0.7699606151660968</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13.994031845363</v>
+        <v>0.85378123499006</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_1_contrast0.88_sharpness0.23_equalization14.0.jpg</t>
+          <t>15_9_brightness15.0_gamma0.77_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.90010977939124</v>
+        <v>0.6042061021069153</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.1978784283554432</v>
+        <v>1.198091739814392</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.172440180186747</v>
+        <v>0.7963389239984728</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_brightness13.0_sharpness0.2_contrast1.2.jpg</t>
+          <t>16_9_gamma0.6_contrast1.2_sharpness0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9188970920621701</v>
+        <v>0.403818960982828</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.6700647072714908</v>
+        <v>0.7192363440211907</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>28.83373037111028</v>
+        <v>13.03527179795762</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_B_contrast0.92_sharpness0.67_equalization29.0.jpg</t>
+          <t>17_C_sharpness0.4_gamma0.72_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9228485025366848</v>
+        <v>0.8634702432087306</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5233266124679788</v>
+        <v>0.8196092555053752</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.060171800593653</v>
+        <v>22.96759848162846</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_P_contrast0.92_sharpness0.52_gamma1.1.jpg</t>
+          <t>18_7_gamma0.86_sharpness0.82_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3382313937849635</v>
+        <v>0.5154786063276559</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>27.25670902176898</v>
+        <v>1.029225088313867</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5145777123279314</v>
+        <v>10.14374555163808</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_sharpness0.34_brightness27.0_gamma0.51.jpg</t>
+          <t>19_3_gamma0.52_contrast1.0_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17.52555648329474</v>
+        <v>20.50209221912518</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8569961483513</v>
+        <v>0.7138977397619665</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.0457139725744</v>
+        <v>0.7978746768470424</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_E_brightness18.0_gamma0.86_contrast1.0.jpg</t>
+          <t>20_2_brightness21.0_sharpness0.71_gamma0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5949190361676039</v>
+        <v>0.08912818894936558</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6507568746315281</v>
+        <v>17.38052896009348</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10.40754159849148</v>
+        <v>0.6144291196617425</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_9_gamma0.59_sharpness0.65_equalization10.0.jpg</t>
+          <t>21_I_sharpness0.089_brightness17.0_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6357849634303084</v>
+        <v>0.9687694359735085</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.04221611603210695</v>
+        <v>0.7945135983840931</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11.70109747089188</v>
+        <v>0.7138918999338429</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_gamma0.64_sharpness0.042_equalization12.0.jpg</t>
+          <t>22_T_contrast0.97_sharpness0.79_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25.5322845635579</v>
+        <v>1.067103214631701</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7273815544451543</v>
+        <v>0.9860330133838758</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.078693593024065</v>
+        <v>0.9317444951344963</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_P_brightness26.0_sharpness0.73_contrast1.1.jpg</t>
+          <t>23_I_gamma1.1_sharpness0.99_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13.03415100563921</v>
+        <v>0.5970346143568477</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8699522230664956</v>
+        <v>0.7375637606348864</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.164922173625971</v>
+        <v>21.04675619060268</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_I_brightness13.0_gamma0.87_contrast1.2.jpg</t>
+          <t>24_P_gamma0.6_sharpness0.74_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.036481576293354</v>
+        <v>0.5602495366700539</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7068952912586481</v>
+        <v>0.9957912245596111</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>19.6706758361053</v>
+        <v>24.85736470358582</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_C_contrast1.0_gamma0.71_brightness20.0.jpg</t>
+          <t>25_P_gamma0.56_contrast1.0_brightness25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.7112185615023868</v>
+        <v>1.037348576338248</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8678432225650601</v>
+        <v>0.9938208761362963</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>21.23164483484511</v>
+        <v>5.766362767688806</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_sharpness0.71_gamma0.87_equalization21.0.jpg</t>
+          <t>26_7_contrast1.0_gamma0.99_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.166651024596257</v>
+        <v>0.456870634811308</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7675710982555652</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>4.620475263492612</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H28" t="n">
-        <v>1.042453524679997</v>
+        <v>9.68195136685009</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_C_contrast1.2_brightness4.6_gamma1.0.jpg</t>
+          <t>27_7_sharpness0.46_gamma0.77_brightness9.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.064852081393158</v>
+        <v>29.16466491878911</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9828893425227658</v>
+        <v>0.8490920424969783</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>13.40868785240715</v>
+        <v>1.044779666931222</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_gamma1.1_sharpness0.98_equalization13.0.jpg</t>
+          <t>28_S_brightness29.0_contrast0.85_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3802255993064303</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>21.12569017898896</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F30" t="n">
-        <v>0.7178181281033328</v>
+        <v>26.92896747208648</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.014920093289215</v>
+        <v>0.9674014403319822</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_brightness21.0_gamma0.72_contrast1.0.jpg</t>
+          <t>29_2_sharpness0.38_brightness27.0_gamma0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3031749631424013</v>
+        <v>0.8297447927690418</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9336406533800232</v>
+        <v>0.6115030182661433</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10.72977165602812</v>
+        <v>5.998057054155851</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_S_sharpness0.3_gamma0.93_equalization11.0.jpg</t>
+          <t>30_C_contrast0.83_sharpness0.61_equalization6.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.00704297441553</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>13.9067207074112</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F32" t="n">
-        <v>0.8519498589957182</v>
+        <v>14.30272832648424</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.8139087892693468</v>
+        <v>1.012406973535911</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_brightness14.0_gamma0.85_contrast0.81.jpg</t>
+          <t>31_S_contrast1.0_brightness14.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,15 +1797,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5495933052278061</v>
+        <v>0.6227729777831307</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.171542965553553</v>
+        <v>0.2555303888532603</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8.381409890826742</v>
+        <v>4.493359333683361</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_gamma0.55_contrast1.2_equalization8.4.jpg</t>
+          <t>32_7_gamma0.62_sharpness0.26_equalization4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.099577412684445</v>
+        <v>0.6087470922907778</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6978376335282725</v>
+        <v>0.1156945033379065</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>13.36924444285794</v>
+        <v>5.774057554293902</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_P_gamma1.1_sharpness0.7_brightness13.0.jpg</t>
+          <t>33_1_gamma0.61_sharpness0.12_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.7350757954229474</v>
+        <v>0.8357857427358049</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8790429199103932</v>
+        <v>25.17069313228639</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>24.93861308766457</v>
+        <v>0.8381446809830025</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_3_gamma0.74_contrast0.88_brightness25.0.jpg</t>
+          <t>34_0_gamma0.84_brightness25.0_contrast0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5078004878236723</v>
+        <v>8.620791871755541</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8935932755468411</v>
+        <v>0.5480804671353282</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.007145200699293919</v>
+        <v>0.9369695552022266</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_gamma0.51_contrast0.89_sharpness0.0071.jpg</t>
+          <t>35_E_brightness8.6_gamma0.55_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1965,30 +1965,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7004328125633923</v>
+        <v>0.8613135421076386</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.01564008796114547</v>
+        <v>27.46798827993472</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>23.875506529808</v>
+        <v>0.90994855976704</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_gamma0.7_sharpness0.016_equalization24.0.jpg</t>
+          <t>36_E_gamma0.86_brightness27.0_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9625491866532555</v>
+        <v>0.7490383055268617</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>21.99327600103112</v>
+        <v>0.8535409396238279</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.08366851298403755</v>
+        <v>5.720902429477905</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_contrast0.96_brightness22.0_sharpness0.084.jpg</t>
+          <t>37_I_sharpness0.75_contrast0.85_equalization5.7.jpg</t>
         </is>
       </c>
     </row>
@@ -2045,19 +2045,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9764125097572819</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>11.15679682842661</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F39" t="n">
-        <v>0.05610684061851889</v>
+        <v>13.38430410053014</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.039843391252179</v>
+        <v>0.6877513799625303</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_brightness11.0_sharpness0.056_gamma1.0.jpg</t>
+          <t>38_B_contrast0.98_brightness13.0_gamma0.69.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.118000922750808</v>
+        <v>0.1464015662312055</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.6204632880204825</v>
+        <v>0.948515328492773</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>15.69510615608804</v>
+        <v>19.03136471227455</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_9_contrast1.1_gamma0.62_equalization16.0.jpg</t>
+          <t>39_9_sharpness0.15_gamma0.95_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2124,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9838162248009642</v>
+        <v>0.562837538859146</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9145531770420955</v>
+        <v>0.1340779409002208</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22.23648013988004</v>
+        <v>14.80760393905283</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_contrast0.98_gamma0.91_equalization22.0.jpg</t>
+          <t>40_B_gamma0.56_sharpness0.13_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,24 +2166,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8458986690814951</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>22.12557398894357</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F42" t="n">
-        <v>0.9442516040688194</v>
+        <v>4.073954178197159</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.119176383912115</v>
+        <v>0.9550263356630712</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_brightness22.0_sharpness0.94_contrast1.1.jpg</t>
+          <t>41_T_sharpness0.85_brightness4.1_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10.83010271351559</v>
+        <v>0.9792572062101041</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5074001055254337</v>
+        <v>0.4178334860676108</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.1139414928782041</v>
+        <v>11.01838628592355</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_brightness11.0_gamma0.51_sharpness0.11.jpg</t>
+          <t>42_0_contrast0.98_sharpness0.42_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9837935619878394</v>
+        <v>21.83597557036572</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.2899177565988217</v>
+        <v>0.8543223620965721</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>22.70811157088301</v>
+        <v>0.9917250805926702</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_T_contrast0.98_sharpness0.29_equalization23.0.jpg</t>
+          <t>43_P_brightness22.0_contrast0.85_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.054800733781077</v>
+        <v>4.393302829418947</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10.27644940928296</v>
+        <v>0.1458891199181618</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.8051224170573447</v>
+        <v>0.7695830705370432</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_gamma1.1_brightness10.0_contrast0.81.jpg</t>
+          <t>44_S_brightness4.4_sharpness0.15_gamma0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.06932587795027</v>
+        <v>0.5309277679980653</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.040539172430148</v>
+        <v>0.7884713934342557</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3.716457032966965</v>
+        <v>25.5731188951374</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_T_gamma1.1_contrast1.0_brightness3.7.jpg</t>
+          <t>45_T_gamma0.53_sharpness0.79_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28.97394914413552</v>
+        <v>0.6228539812569128</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.04794096515953</v>
+        <v>0.8376624356908495</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.2667814790959957</v>
+        <v>20.04131183636203</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_E_brightness29.0_gamma1.0_sharpness0.27.jpg</t>
+          <t>46_1_gamma0.62_contrast0.84_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.647217619248203</v>
+        <v>0.7199805275851939</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8456524587915282</v>
+        <v>0.9167484392471142</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.120212495790436</v>
+        <v>0.7843470387528069</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_8_brightness3.6_sharpness0.85_contrast1.1.jpg</t>
+          <t>47_E_sharpness0.72_contrast0.92_gamma0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -2465,11 +2465,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9566471628460981</v>
+        <v>0.7946029725706046</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6272102864558674</v>
+        <v>0.8074821252760989</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9096672167185946</v>
+        <v>1.005591206058978</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_P_contrast0.96_sharpness0.63_gamma0.91.jpg</t>
+          <t>48_P_gamma0.79_sharpness0.81_brightness1.0.jpg</t>
         </is>
       </c>
     </row>
